--- a/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,41</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-63,78%</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-63,33%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 11,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 0,0</t>
+          <t>-20,73; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,61; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,29</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,72</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>123,68%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>175,87%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>106,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 66,32</t>
+          <t>-4,33; 5,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 91,47</t>
+          <t>-13,24; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 65,82</t>
+          <t>-3,34; 9,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,75%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 47,61</t>
+          <t>-3,82; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 35,73</t>
+          <t>-8,28; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 29,08</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>56,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>210,97%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 34,36</t>
+          <t>-3,92; 6,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 22,71</t>
+          <t>-6,15; 6,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 34,78</t>
+          <t>-4,47; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 309,72</t>
+          <t>-1,71; 7,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 127,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 269,52</t>
+          <t>-84,71; 418,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,63</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,63</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>-15,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>-47,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-43,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-56,38%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 63,17</t>
+          <t>-13,67; 12,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 49,55</t>
+          <t>-22,51; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 35,63</t>
+          <t>-19,9; 5,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 256,4</t>
+          <t>-30,83; -1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 147,04</t>
+          <t>-74,97; 194,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 70,98</t>
+          <t>-85,48; 37,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-83,21; 79,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-83,64; -4,54</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-16,02%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-70,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 28,89</t>
+          <t>-9,68; 22,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 46,31</t>
+          <t>-18,48; 12,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 20,64</t>
+          <t>-24,55; 1,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 46,16</t>
+          <t>-19,32; 18,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 97,08</t>
+          <t>-59,22; 389,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 27,65</t>
+          <t>-83,86; 235,9</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-66,92; 175,94</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>-46,35%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-52,46%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-16,13%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 28,06</t>
+          <t>-2,85; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 38,34</t>
+          <t>-6,76; 0,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 27,54</t>
+          <t>-6,7; -0,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 91,27</t>
+          <t>-5,73; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,45; 138,22</t>
+          <t>-42,98; 132,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 102,5</t>
+          <t>-73,55; 5,95</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-76,59; 2,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-54,83; 54,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-63,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.249871639267346</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.815639859818713</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5876137894903354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,73; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,61; 2,69</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-18.38952578991551</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.56864464731157</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.882784172132633</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>106,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 5,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,24; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 9,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>-0.005291235678357362</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.511864521018984</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.639421610500408</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.522785007444332</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.003075581185778295</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9093446894829246</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>74,4%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,36%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.723785493730856</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.99035653958123</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.854800362337217</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 5,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 3,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.752284342890798</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.457129848300715</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.587638157451108</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +785,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>48,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>56,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>210,97%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.085024633998218</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.614768857809289</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.793933006497277</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3603517526493705</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7723434100682215</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2507816539518319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 6,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; 6,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 6,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 7,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-84,71; 418,11</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.315319736482645</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.148369202695912</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.950150541582572</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.331977907200467</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.833345037525615</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.674866796525925</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-15,66</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-47,1%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-43,27%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-56,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; 12,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,51; 3,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,9; 5,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-30,83; -1,68</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-74,97; 194,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-85,48; 37,54</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-83,21; 79,02</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-83,64; -4,54</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.9016075904529026</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1322906509820157</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.664311357081229</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.910498867986633</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3282997989897965</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.02618945299082682</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.668575517997999</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.327387679570124</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>42,11%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-16,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-70,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,61%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.609374816745712</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.386006271583565</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.176781658805962</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.57404566474671</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.8439250642079679</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; 22,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,48; 12,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-24,55; 1,05</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-19,32; 18,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-59,22; 389,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-83,86; 235,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-66,92; 175,94</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.237406591583859</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.464020743338379</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.241573194553013</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.250496475768562</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>4.065505680200436</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +957,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-46,35%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-52,46%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-16,13%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.278494273036939</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.785529091090634</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.417655905462886</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-15.14274910353902</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1616726372242842</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.4778980606072064</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.4504752709114911</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.5625886627789437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 4,35</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,1</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,7; -0,43</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 3,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-42,98; 132,56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-73,55; 5,95</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-76,59; 2,34</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-54,83; 54,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.28987029949942</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-22.33456154247893</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.69811747539887</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-29.75805706326627</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.7609335754641696</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8537710056889447</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.8409611376886355</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.834857108474738</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.5370491347783</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.931588941581017</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.061693101064691</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-1.694026040484002</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.669583896836268</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.4309747677296636</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.73869243931039</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>-0.01462784641475477</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>7.340263673421021</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.6599521131481628</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-9.452093710738346</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.909185686578257</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.6407249430583106</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.04579169116801956</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.7299892593421771</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.09646055015262087</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-6.982604569622429</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-16.2768580857449</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-24.45228648889119</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-16.61791651785566</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5193571117449445</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.7838119755804097</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.6307099022980487</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>25.43083788965978</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>16.68723153448567</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.3449028442877576</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>23.28738043991868</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>5.056078702173655</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3.393877216100946</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>2.147742472105281</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.3166831029761896</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.012170052833935</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.121854174501772</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.5999263218669684</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.06386097223655191</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4366609664004777</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.5215231896636089</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.07719531533688899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.967999595276244</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.561418249592221</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.315327080972345</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-4.903348959419178</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.4416868115383609</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.7221936924732706</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.7681879440826634</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4956699221672655</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.906565047519377</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2901123489044899</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.2912078583750091</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.415967499261242</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.234552514608343</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1588195406524078</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.04575589403295255</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.7665988502568142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1251,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
